--- a/LitRev.xlsx
+++ b/LitRev.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LitRev" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Studies" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -31,19 +32,72 @@
     <t xml:space="preserve">Year</t>
   </si>
   <si>
+    <t xml:space="preserve">Tag (Material)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag (Study)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Link</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.google.com</t>
+    <t xml:space="preserve">Electron mobility of SnO2 from first principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arxiv.org/pdf/2401.12158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queries/Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Develop the electron mobility workflow. Could possibly start from SnO2.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Intermediary Steps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Phonon calculations, electron-phonon
+- Hall mobility, 
+- </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- What is Acoustic Deformation Potential (ADP)?
+- Brooks-Herring Model</t>
   </si>
 </sst>
 </file>
@@ -75,8 +129,8 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -128,8 +182,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -141,21 +195,88 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF069A2E"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFF10D0C"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.89"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -170,161 +291,170 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="str">
-        <f aca="false">HYPERLINK(D2)</f>
-        <v>www.google.com</v>
+      <c r="C2" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <f aca="false">HYPERLINK(G2)</f>
+        <v>https://arxiv.org/pdf/2401.12158</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="0" t="str">
-        <f aca="false">HYPERLINK(D3)</f>
+      <c r="H3" s="0" t="str">
+        <f aca="false">HYPERLINK(G3)</f>
         <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="0" t="str">
-        <f aca="false">HYPERLINK(D4)</f>
+      <c r="H4" s="0" t="str">
+        <f aca="false">HYPERLINK(G4)</f>
         <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="0" t="str">
-        <f aca="false">HYPERLINK(D5)</f>
+      <c r="H5" s="0" t="str">
+        <f aca="false">HYPERLINK(G5)</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="0" t="str">
-        <f aca="false">HYPERLINK(D6)</f>
+      <c r="H6" s="0" t="str">
+        <f aca="false">HYPERLINK(G6)</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="0" t="str">
-        <f aca="false">HYPERLINK(D7)</f>
+      <c r="H7" s="0" t="str">
+        <f aca="false">HYPERLINK(G7)</f>
         <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="str">
-        <f aca="false">HYPERLINK(D8)</f>
+      <c r="H8" s="0" t="str">
+        <f aca="false">HYPERLINK(G8)</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="str">
-        <f aca="false">HYPERLINK(D9)</f>
+      <c r="H9" s="0" t="str">
+        <f aca="false">HYPERLINK(G9)</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="str">
-        <f aca="false">HYPERLINK(D10)</f>
+      <c r="H10" s="0" t="str">
+        <f aca="false">HYPERLINK(G10)</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="0" t="str">
-        <f aca="false">HYPERLINK(D11)</f>
+      <c r="H11" s="0" t="str">
+        <f aca="false">HYPERLINK(G11)</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="0" t="str">
-        <f aca="false">HYPERLINK(D12)</f>
+      <c r="H12" s="0" t="str">
+        <f aca="false">HYPERLINK(G12)</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0" t="str">
-        <f aca="false">HYPERLINK(D13)</f>
+      <c r="H13" s="0" t="str">
+        <f aca="false">HYPERLINK(G13)</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="str">
-        <f aca="false">HYPERLINK(D14)</f>
+      <c r="H14" s="0" t="str">
+        <f aca="false">HYPERLINK(G14)</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="str">
-        <f aca="false">HYPERLINK(D15)</f>
+      <c r="H15" s="0" t="str">
+        <f aca="false">HYPERLINK(G15)</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="0" t="str">
-        <f aca="false">HYPERLINK(D16)</f>
+      <c r="H16" s="0" t="str">
+        <f aca="false">HYPERLINK(G16)</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="0" t="str">
-        <f aca="false">HYPERLINK(D17)</f>
+      <c r="H17" s="0" t="str">
+        <f aca="false">HYPERLINK(G17)</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="0" t="str">
-        <f aca="false">HYPERLINK(D18)</f>
+      <c r="H18" s="0" t="str">
+        <f aca="false">HYPERLINK(G18)</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="0" t="str">
-        <f aca="false">HYPERLINK(D19)</f>
+      <c r="H19" s="0" t="str">
+        <f aca="false">HYPERLINK(G19)</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="0" t="str">
-        <f aca="false">HYPERLINK(D20)</f>
+      <c r="H20" s="0" t="str">
+        <f aca="false">HYPERLINK(G20)</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="0" t="str">
-        <f aca="false">HYPERLINK(D21)</f>
+      <c r="H21" s="0" t="str">
+        <f aca="false">HYPERLINK(G21)</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="0" t="str">
-        <f aca="false">HYPERLINK(D22)</f>
+      <c r="H22" s="0" t="str">
+        <f aca="false">HYPERLINK(G22)</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="str">
-        <f aca="false">HYPERLINK(D23)</f>
+      <c r="H23" s="0" t="str">
+        <f aca="false">HYPERLINK(G23)</f>
         <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="0" t="str">
-        <f aca="false">HYPERLINK(D24)</f>
+      <c r="H24" s="0" t="str">
+        <f aca="false">HYPERLINK(G24)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="www.google.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -333,4 +463,55 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF069A2E"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="84.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="70.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/LitRev.xlsx
+++ b/LitRev.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LitRev" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Studies" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tasks" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Small Tasks" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -56,10 +58,28 @@
     <t xml:space="preserve">https://arxiv.org/pdf/2401.12158</t>
   </si>
   <si>
+    <t xml:space="preserve">Density functional theory investigation on fast storage of sodium and potassium in Ni2TeO6 as a novel promising cathode material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materials Today Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy barrier, interacalation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sciencedirect.com/science/article/abs/pii/S2468606923001703</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ideas</t>
   </si>
   <si>
     <t xml:space="preserve">Queries/Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keywords</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
@@ -70,6 +90,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Develop the electron mobility workflow. Could possibly start from SnO2.
 </t>
@@ -80,6 +101,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Intermediary Steps
 </t>
@@ -89,6 +111,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- Phonon calculations, electron-phonon
 - Hall mobility, 
@@ -98,6 +121,72 @@
   <si>
     <t xml:space="preserve">- What is Acoustic Deformation Potential (ADP)?
 - Brooks-Herring Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adsorption on graphene/WS2 nano-ribbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanoribbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pubs.rsc.org/en/content/articlelanding/2024/na/d3na01050c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perovskite photovoltaic modeling using DFT and ‘pvlib’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perovskite solar cells </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pubs.acs.org/doi/abs/10.1021/acs.jpcc.1c02302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focal Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop workflow to reproduce Giustino’s SnO2 paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misbah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead vacancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naseeb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanoribbon adsorption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perovskite (DFT + pvlib)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effmass code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheharyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done/Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makefile, make.inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement nanoribbons in VESTA</t>
   </si>
 </sst>
 </file>
@@ -107,11 +196,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -131,16 +221,66 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF127622"/>
+        <bgColor rgb="FF069A2E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8D281E"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7D1D5"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,13 +317,49 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -206,7 +382,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF069A2E"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -231,25 +407,25 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFF7D1D5"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF8D281E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -266,43 +442,45 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -318,140 +496,155 @@
         <v>10</v>
       </c>
       <c r="H2" s="0" t="str">
-        <f aca="false">HYPERLINK(G2)</f>
-        <v>https://arxiv.org/pdf/2401.12158</v>
+        <f aca="false">HYPERLINK(G2,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="0" t="str">
-        <f aca="false">HYPERLINK(G3)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G3,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H4" s="0" t="str">
-        <f aca="false">HYPERLINK(G4)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G4,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H5" s="0" t="str">
-        <f aca="false">HYPERLINK(G5)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G5,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H6" s="0" t="str">
-        <f aca="false">HYPERLINK(G6)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G6,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H7" s="0" t="str">
-        <f aca="false">HYPERLINK(G7)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G7,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="0" t="str">
-        <f aca="false">HYPERLINK(G8)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G8,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="0" t="str">
-        <f aca="false">HYPERLINK(G9)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G9,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H10" s="0" t="str">
-        <f aca="false">HYPERLINK(G10)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G10,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H11" s="0" t="str">
-        <f aca="false">HYPERLINK(G11)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G11,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H12" s="0" t="str">
-        <f aca="false">HYPERLINK(G12)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G12,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H13" s="0" t="str">
-        <f aca="false">HYPERLINK(G13)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G13,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H14" s="0" t="str">
-        <f aca="false">HYPERLINK(G14)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G14,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H15" s="0" t="str">
-        <f aca="false">HYPERLINK(G15)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G15,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H16" s="0" t="str">
-        <f aca="false">HYPERLINK(G16)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G16,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H17" s="0" t="str">
-        <f aca="false">HYPERLINK(G17)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G17,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H18" s="0" t="str">
-        <f aca="false">HYPERLINK(G18)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G18,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H19" s="0" t="str">
-        <f aca="false">HYPERLINK(G19)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G19,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H20" s="0" t="str">
-        <f aca="false">HYPERLINK(G20)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G20,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H21" s="0" t="str">
-        <f aca="false">HYPERLINK(G21)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G21,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H22" s="0" t="str">
-        <f aca="false">HYPERLINK(G22)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G22,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H23" s="0" t="str">
-        <f aca="false">HYPERLINK(G23)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G23,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H24" s="0" t="str">
-        <f aca="false">HYPERLINK(G24)</f>
-        <v/>
+        <f aca="false">HYPERLINK(G24,"Link")</f>
+        <v>Link</v>
       </c>
     </row>
   </sheetData>
@@ -471,38 +664,64 @@
     <tabColor rgb="FF069A2E"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="84.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="84.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>13</v>
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="70.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -514,4 +733,154 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B3" type="list">
+      <formula1>"Done,Pending"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/LitRev.xlsx
+++ b/LitRev.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -159,15 +159,12 @@
     <t xml:space="preserve">Lead vacancy</t>
   </si>
   <si>
-    <t xml:space="preserve">Libxc</t>
+    <t xml:space="preserve">Nanoribbon adsorption</t>
   </si>
   <si>
     <t xml:space="preserve">Naseeb</t>
   </si>
   <si>
-    <t xml:space="preserve">Nanoribbon adsorption</t>
-  </si>
-  <si>
     <t xml:space="preserve">Perovskite (DFT + pvlib)</t>
   </si>
   <si>
@@ -180,13 +177,28 @@
     <t xml:space="preserve">Done/Pending</t>
   </si>
   <si>
-    <t xml:space="preserve">makefile, make.inc</t>
+    <t xml:space="preserve">Implement nanoribbons in VESTA</t>
   </si>
   <si>
     <t xml:space="preserve">Pending</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement nanoribbons in VESTA</t>
+    <t xml:space="preserve">Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sholl (Ch. 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudopotential (3 to 4 slides). Basic idea. See Ashcroft/Mermin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudopotential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space groups (Glazer)</t>
   </si>
 </sst>
 </file>
@@ -196,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -233,13 +245,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,7 +268,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -280,6 +287,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF7D1D5"/>
         <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF860D"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
   </fills>
@@ -317,7 +342,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,11 +379,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,7 +411,7 @@
       <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF38"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -416,8 +449,8 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -446,7 +479,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.23"/>
@@ -670,7 +703,7 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="84.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="22.16"/>
@@ -740,15 +773,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
   </cols>
   <sheetData>
@@ -800,22 +833,13 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -833,15 +857,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,28 +874,52 @@
         <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="10" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>42</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B3" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2" type="list">
       <formula1>"Done,Pending"</formula1>
       <formula2>0</formula2>
     </dataValidation>
